--- a/指标体系数据.xlsx
+++ b/指标体系数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060" activeTab="7"/>
+    <workbookView windowWidth="22188" windowHeight="9060" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="ROA1_FR" sheetId="1" r:id="rId1"/>
@@ -109,7 +109,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,13 +120,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -594,148 +587,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1094,7 +1087,7 @@
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
@@ -1232,6 +1225,9 @@
       </c>
       <c r="G3">
         <v>440</v>
+      </c>
+      <c r="I3">
+        <v>4</v>
       </c>
       <c r="J3">
         <v>29</v>
@@ -1276,7 +1272,7 @@
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
@@ -1414,6 +1410,9 @@
       </c>
       <c r="G3">
         <v>547</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
       </c>
       <c r="J3">
         <v>109</v>
@@ -1458,7 +1457,7 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
@@ -1543,6 +1542,9 @@
       </c>
       <c r="G2">
         <v>175</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1587,7 +1589,7 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
@@ -1672,6 +1674,9 @@
       </c>
       <c r="G2">
         <v>455</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1716,7 +1721,7 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
@@ -1801,6 +1806,9 @@
       </c>
       <c r="G2">
         <v>160</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1845,7 +1853,7 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
@@ -1930,6 +1938,9 @@
       </c>
       <c r="G2">
         <v>192</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1973,8 +1984,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
@@ -2059,6 +2070,9 @@
       </c>
       <c r="G2">
         <v>213</v>
+      </c>
+      <c r="I2">
+        <v>4</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -2102,8 +2116,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:S3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
@@ -2189,6 +2203,9 @@
       <c r="G2">
         <v>186</v>
       </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
       <c r="J2">
         <v>0</v>
       </c>
@@ -2223,8 +2240,6 @@
     <row r="3" spans="1:19">
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3"/>
-      <c r="G3"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
